--- a/Ch5_Cartogram/source/전국 카토그램.xlsx
+++ b/Ch5_Cartogram/source/전국 카토그램.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wontae\WorkSpace\Python_Data\Ch5_Cartogram\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A6D368-6C2A-485E-AFE5-BCD4254E214D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9DC43A-69EB-4BDB-92B5-B8A25FCD11D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="1755" windowWidth="21600" windowHeight="11265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="105" windowWidth="21600" windowHeight="11265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
-  <si>
-    <t>철원</t>
-  </si>
   <si>
     <t>화천</t>
   </si>
@@ -849,6 +846,10 @@
   </si>
   <si>
     <t>서귀포</t>
+  </si>
+  <si>
+    <t>철원</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1420,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25"/>
@@ -1475,43 +1476,43 @@
     </row>
     <row r="2" spans="1:14" ht="35.1" customHeight="1">
       <c r="H2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="35.1" customHeight="1">
       <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -1520,28 +1521,28 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -1550,31 +1551,31 @@
       <c r="A5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1583,108 +1584,108 @@
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="35.1" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="35.1" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="N8" s="5"/>
     </row>
@@ -1692,341 +1693,341 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="35.1" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="J10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="35.1" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="I11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="35.1" customHeight="1">
       <c r="A12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="I12" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="35.1" customHeight="1">
       <c r="A13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="H13" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="M13" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="35.1" customHeight="1">
       <c r="A14" s="5"/>
       <c r="B14" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="35.1" customHeight="1">
       <c r="A15" s="5"/>
       <c r="B15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="L15" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="M15" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="35.1" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="G16" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="K16" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="L16" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="M16" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="35.1" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="F17" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="G17" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="K17" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="L17" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="M17" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>164</v>
       </c>
       <c r="N17" s="5"/>
     </row>
@@ -2034,37 +2035,37 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="F18" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="H18" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="K18" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="N18" s="5"/>
     </row>
@@ -2072,178 +2073,178 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="H19" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="J19" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" ht="35.1" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="H20" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="I20" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" ht="35.1" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="G21" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="H21" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="I21" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="J21" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" ht="35.1" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="G22" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="H22" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="J22" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="K22" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" ht="35.1" customHeight="1">
       <c r="A23" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="H23" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="I23" s="15" t="s">
         <v>227</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>228</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -2252,31 +2253,31 @@
     </row>
     <row r="24" spans="1:14" ht="35.1" customHeight="1">
       <c r="A24" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="H24" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="I24" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -2286,19 +2287,19 @@
     </row>
     <row r="25" spans="1:14" ht="35.1" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -2312,16 +2313,16 @@
     </row>
     <row r="26" spans="1:14" ht="35.1" customHeight="1">
       <c r="A26" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -2337,12 +2338,12 @@
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -2359,7 +2360,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="F28" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
